--- a/doc/Diagramme de Gantt - Météo.xlsx
+++ b/doc/Diagramme de Gantt - Météo.xlsx
@@ -150,9 +150,6 @@
     <t>Rendu du rapport</t>
   </si>
   <si>
-    <t>Livrables</t>
-  </si>
-  <si>
     <t>Projet station météo</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Programmation</t>
+  </si>
+  <si>
+    <t>Jalons / Livrables</t>
   </si>
 </sst>
 </file>
@@ -691,53 +691,53 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,7 +2040,7 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2078,76 +2078,76 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="21"/>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="70" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="67" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="67"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="65" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="C3" s="18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="23"/>
-      <c r="H3" s="68"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="23"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="66"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="69"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="61" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="66"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="69"/>
     </row>
     <row r="5" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="25">
         <v>12</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>35</v>
@@ -2357,7 +2357,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>38</v>
@@ -2381,7 +2381,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>34</v>
@@ -2445,15 +2445,15 @@
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="43"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="72"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="58"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="7">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="44"/>
@@ -2499,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>34</v>
@@ -2547,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="44"/>
@@ -2617,23 +2617,23 @@
         <v>5</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="51"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="52"/>
       <c r="M24" s="51"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
       <c r="Q24" s="53"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
